--- a/TP5/EJ2/Mediciones/Zin.xlsx
+++ b/TP5/EJ2/Mediciones/Zin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671CAF93-CA1D-4435-ACFA-E5D0AA6A7D34}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015C8577-2D36-4916-A042-C94A8D5D019A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>relacion</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>Freq</t>
+  </si>
+  <si>
+    <t>ZIN ABS COPY</t>
+  </si>
+  <si>
+    <t>ZIN PHA COPY</t>
   </si>
 </sst>
 </file>
@@ -379,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I283"/>
+  <dimension ref="A1:M283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="M272" sqref="M272"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,7 +398,7 @@
     <col min="5" max="5" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -420,8 +426,14 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>16000</v>
       </c>
@@ -455,8 +467,14 @@
         <f>IMAGINARY(E2)</f>
         <v>-1507.68513080466</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>104191.99820014667</v>
+      </c>
+      <c r="M2">
+        <v>-0.82911366746178927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>16072.2900260154</v>
       </c>
@@ -490,8 +508,14 @@
         <f t="shared" ref="I3:I66" si="5">IMAGINARY(E3)</f>
         <v>-1355.3084686038601</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>104244.08124000867</v>
+      </c>
+      <c r="M3">
+        <v>-0.74494054826086198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>16144.9066675221</v>
       </c>
@@ -525,8 +549,14 @@
         <f t="shared" si="5"/>
         <v>-1431.77215584752</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>104218.72940344443</v>
+      </c>
+      <c r="M4">
+        <v>-0.78716256597602607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>16217.8514002103</v>
       </c>
@@ -560,8 +590,14 @@
         <f t="shared" si="5"/>
         <v>-1431.77215584752</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>104218.72940344443</v>
+      </c>
+      <c r="M5">
+        <v>-0.78716256597602607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>16291.1257064375</v>
       </c>
@@ -595,8 +631,14 @@
         <f t="shared" si="5"/>
         <v>-1507.68513080466</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>104191.99820014667</v>
+      </c>
+      <c r="M6">
+        <v>-0.82911366746178927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>16364.7310752586</v>
       </c>
@@ -630,8 +672,14 @@
         <f t="shared" si="5"/>
         <v>-1449.7640460059499</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>104269.54550057759</v>
+      </c>
+      <c r="M7">
+        <v>-0.79666634532488934</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>16438.669002456401</v>
       </c>
@@ -665,8 +713,14 @@
         <f t="shared" si="5"/>
         <v>-1449.7640460059499</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>104269.54550057759</v>
+      </c>
+      <c r="M8">
+        <v>-0.79666634532488934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>16512.940990571798</v>
       </c>
@@ -700,8 +754,14 @@
         <f t="shared" si="5"/>
         <v>-1449.7640460059499</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>104269.54550057759</v>
+      </c>
+      <c r="M9">
+        <v>-0.79666634532488934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>16587.548548934199</v>
       </c>
@@ -735,8 +795,14 @@
         <f t="shared" si="5"/>
         <v>-1389.6179425943999</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>104347.01658197345</v>
+      </c>
+      <c r="M10">
+        <v>-0.76304622261385002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>16662.4931936926</v>
       </c>
@@ -770,8 +836,14 @@
         <f t="shared" si="5"/>
         <v>-1467.9992257814799</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>104320.99753963985</v>
+      </c>
+      <c r="M11">
+        <v>-0.80628960714539666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>16737.776447846001</v>
       </c>
@@ -805,8 +877,14 @@
         <f t="shared" si="5"/>
         <v>-1545.81290900008</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>104293.56334896035</v>
+      </c>
+      <c r="M12">
+        <v>-0.84925469924775521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>16813.3998412744</v>
       </c>
@@ -840,8 +918,14 @@
         <f t="shared" si="5"/>
         <v>-1623.0298038887199</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>104264.72572499188</v>
+      </c>
+      <c r="M13">
+        <v>-0.89192690165719424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>16889.3649107702</v>
       </c>
@@ -875,8 +959,14 @@
         <f t="shared" si="5"/>
         <v>-1467.9992257814799</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>104320.99753963985</v>
+      </c>
+      <c r="M14">
+        <v>-0.80628960714539666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16965.673200069101</v>
       </c>
@@ -910,8 +1000,14 @@
         <f t="shared" si="5"/>
         <v>-1565.2643997139501</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>104345.30073139965</v>
+      </c>
+      <c r="M15">
+        <v>-0.85951554230648131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>17042.326259881698</v>
       </c>
@@ -945,8 +1041,14 @@
         <f t="shared" si="5"/>
         <v>-1486.4814022575099</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>104373.09405451406</v>
+      </c>
+      <c r="M16">
+        <v>-0.81603396846868759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17119.325647924801</v>
       </c>
@@ -980,8 +1082,14 @@
         <f t="shared" si="5"/>
         <v>-1565.2643997139501</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>104345.30073139965</v>
+      </c>
+      <c r="M17">
+        <v>-0.85951554230648131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17196.672928953201</v>
       </c>
@@ -1015,8 +1123,14 @@
         <f t="shared" si="5"/>
         <v>-1584.97954975329</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>104397.68604523703</v>
+      </c>
+      <c r="M18">
+        <v>-0.86990556298222155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17274.369674791498</v>
       </c>
@@ -1050,8 +1164,14 @@
         <f t="shared" si="5"/>
         <v>-1584.97954975329</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>104397.68604523703</v>
+      </c>
+      <c r="M19">
+        <v>-0.86990556298222155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17352.417464365801</v>
       </c>
@@ -1085,8 +1205,14 @@
         <f t="shared" si="5"/>
         <v>-1584.97954975329</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>104397.68604523703</v>
+      </c>
+      <c r="M20">
+        <v>-0.86990556298222155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17430.817883736399</v>
       </c>
@@ -1120,8 +1246,14 @@
         <f t="shared" si="5"/>
         <v>-1604.9623913601099</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>104450.72799560367</v>
+      </c>
+      <c r="M21">
+        <v>-0.8804265137423718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>17509.572526129199</v>
       </c>
@@ -1155,8 +1287,14 @@
         <f t="shared" si="5"/>
         <v>-1604.9623913601099</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>104450.72799560367</v>
+      </c>
+      <c r="M22">
+        <v>-0.8804265137423718</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17588.682991968701</v>
       </c>
@@ -1190,8 +1328,14 @@
         <f t="shared" si="5"/>
         <v>-1604.9623913601099</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>104450.72799560367</v>
+      </c>
+      <c r="M23">
+        <v>-0.8804265137423718</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>17668.150888910299</v>
       </c>
@@ -1225,8 +1369,14 @@
         <f t="shared" si="5"/>
         <v>-1625.21702944971</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>104504.43541881592</v>
+      </c>
+      <c r="M24">
+        <v>-0.89108017389156624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>17747.977831872999</v>
       </c>
@@ -1260,8 +1410,14 @@
         <f t="shared" si="5"/>
         <v>-1786.8219758975299</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>104442.21210206937</v>
+      </c>
+      <c r="M25">
+        <v>-0.98027752117713829</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>17828.165443072201</v>
       </c>
@@ -1295,8 +1451,14 @@
         <f t="shared" si="5"/>
         <v>-1786.8219758975299</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>104442.21210206937</v>
+      </c>
+      <c r="M26">
+        <v>-0.98027752117713829</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>17908.715352052601</v>
       </c>
@@ -1330,8 +1492,14 @@
         <f t="shared" si="5"/>
         <v>-1890.1334170718201</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>104462.04454519483</v>
+      </c>
+      <c r="M27">
+        <v>-1.0367648661135835</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>17989.6291957215</v>
       </c>
@@ -1365,8 +1533,14 @@
         <f t="shared" si="5"/>
         <v>-1809.3668595530901</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>104495.77585201887</v>
+      </c>
+      <c r="M28">
+        <v>-0.99213834036615001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>18070.908618381902</v>
       </c>
@@ -1400,8 +1574,14 @@
         <f t="shared" si="5"/>
         <v>-1749.73132919457</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>104582.69805059559</v>
+      </c>
+      <c r="M29">
+        <v>-0.95863751735013303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>18152.555271765901</v>
       </c>
@@ -1435,8 +1615,14 @@
         <f t="shared" si="5"/>
         <v>-1582.7317196213301</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>104643.55156749903</v>
+      </c>
+      <c r="M30">
+        <v>-0.86663061586160139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>18234.570815068499</v>
       </c>
@@ -1470,8 +1656,14 @@
         <f t="shared" si="5"/>
         <v>-1749.73132919457</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>104582.69805059559</v>
+      </c>
+      <c r="M31">
+        <v>-0.95863751735013303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>18316.9569149811</v>
       </c>
@@ -1505,8 +1697,14 @@
         <f t="shared" si="5"/>
         <v>-1855.38245261418</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>104604.92719654132</v>
+      </c>
+      <c r="M32">
+        <v>-1.0163111964407472</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>18399.715245725201</v>
       </c>
@@ -1540,8 +1738,14 @@
         <f t="shared" si="5"/>
         <v>-1687.6538950940001</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>104669.64090553203</v>
+      </c>
+      <c r="M33">
+        <v>-0.92385561652635051</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>18482.847489086998</v>
       </c>
@@ -1575,8 +1779,14 @@
         <f t="shared" si="5"/>
         <v>-1771.8661745629199</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>104638.04486714125</v>
+      </c>
+      <c r="M34">
+        <v>-0.97025232092694225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>18566.355334451098</v>
       </c>
@@ -1610,8 +1820,14 @@
         <f t="shared" si="5"/>
         <v>-1938.1712377712799</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>104570.3023354459</v>
+      </c>
+      <c r="M35">
+        <v>-1.0620165434681375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>18650.240478834701</v>
       </c>
@@ -1645,8 +1861,14 @@
         <f t="shared" si="5"/>
         <v>-1709.03827749015</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>104726.10128918524</v>
+      </c>
+      <c r="M36">
+        <v>-0.93505846120257419</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>18734.504626922699</v>
       </c>
@@ -1680,8 +1902,14 @@
         <f t="shared" si="5"/>
         <v>-1794.30389257807</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>104694.08781946647</v>
+      </c>
+      <c r="M37">
+        <v>-0.98201413162655748</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>18819.1494911019</v>
       </c>
@@ -1715,8 +1943,14 @@
         <f t="shared" si="5"/>
         <v>-2097.8460989016298</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>104700.27115765343</v>
+      </c>
+      <c r="M38">
+        <v>-1.1480941764762578</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>18904.176791495502</v>
       </c>
@@ -1750,8 +1984,14 @@
         <f t="shared" si="5"/>
         <v>-1902.66443910782</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>104716.8379557958</v>
+      </c>
+      <c r="M39">
+        <v>-1.0410994398351163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>18989.588255999101</v>
       </c>
@@ -1785,8 +2025,14 @@
         <f t="shared" si="5"/>
         <v>-2012.7165395765201</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>104737.83660953079</v>
+      </c>
+      <c r="M40">
+        <v>-1.1011041052137416</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>19075.385620314599</v>
       </c>
@@ -1820,8 +2066,14 @@
         <f t="shared" si="5"/>
         <v>-2012.7165395765201</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>104737.83660953079</v>
+      </c>
+      <c r="M41">
+        <v>-1.1011041052137416</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>19161.570627986199</v>
       </c>
@@ -1855,8 +2107,14 @@
         <f t="shared" si="5"/>
         <v>-1951.25240547768</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>104831.5832292132</v>
+      </c>
+      <c r="M42">
+        <v>-1.0665200374256114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>19248.1450304358</v>
       </c>
@@ -1890,8 +2148,14 @@
         <f t="shared" si="5"/>
         <v>-2038.2492807953699</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>104795.0912928279</v>
+      </c>
+      <c r="M43">
+        <v>-1.1144648504988883</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>19335.110586998198</v>
       </c>
@@ -1925,8 +2189,14 @@
         <f t="shared" si="5"/>
         <v>-2124.43944072661</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>104757.02876064235</v>
+      </c>
+      <c r="M44">
+        <v>-1.16201996251807</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>19422.4690649572</v>
       </c>
@@ -1960,8 +2230,14 @@
         <f t="shared" si="5"/>
         <v>-2064.1330734776998</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>104853.06686644042</v>
+      </c>
+      <c r="M45">
+        <v>-1.1279951753319399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>19510.222239581501</v>
       </c>
@@ -1995,8 +2271,14 @@
         <f t="shared" si="5"/>
         <v>-2151.3979223721499</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <v>104814.49991907743</v>
+      </c>
+      <c r="M46">
+        <v>-1.1761223706285369</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>19598.371894160598</v>
       </c>
@@ -2030,8 +2312,14 @@
         <f t="shared" si="5"/>
         <v>-2064.1330734776998</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L47">
+        <v>104853.06686644042</v>
+      </c>
+      <c r="M47">
+        <v>-1.1279951753319399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>19686.919820041101</v>
       </c>
@@ -2065,8 +2353,14 @@
         <f t="shared" si="5"/>
         <v>-2090.3734041418002</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L48">
+        <v>104911.77310549786</v>
+      </c>
+      <c r="M48">
+        <v>-1.1416974134363531</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>19775.867816663202</v>
       </c>
@@ -2100,8 +2394,14 @@
         <f t="shared" si="5"/>
         <v>-2178.7272377764598</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <v>104872.69428137381</v>
+      </c>
+      <c r="M49">
+        <v>-1.190403828146072</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>19865.217691597201</v>
       </c>
@@ -2135,8 +2435,14 @@
         <f t="shared" si="5"/>
         <v>-2206.43318598614</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <v>104931.621642638</v>
+      </c>
+      <c r="M50">
+        <v>-1.2048668003141065</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>19954.9712605801</v>
       </c>
@@ -2170,8 +2476,14 @@
         <f t="shared" si="5"/>
         <v>-2026.6732920801701</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L51">
+        <v>105009.18582438657</v>
+      </c>
+      <c r="M51">
+        <v>-1.105875026731713</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>20045.1303475528</v>
       </c>
@@ -2205,8 +2517,14 @@
         <f t="shared" si="5"/>
         <v>-2291.8704437604902</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L52">
+        <v>105112.90192690361</v>
+      </c>
+      <c r="M52">
+        <v>-1.2493700405602313</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>20135.696784697</v>
       </c>
@@ -2240,8 +2558,14 @@
         <f t="shared" si="5"/>
         <v>-2324.20431287368</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L53">
+        <v>104949.53082121449</v>
+      </c>
+      <c r="M53">
+        <v>-1.2689717079853955</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>20226.672412472199</v>
       </c>
@@ -2275,8 +2599,14 @@
         <f t="shared" si="5"/>
         <v>-1985.2916526218801</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L54">
+        <v>105168.65407538481</v>
+      </c>
+      <c r="M54">
+        <v>-1.0816491910290438</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>20318.059079653602</v>
       </c>
@@ -2310,8 +2640,14 @@
         <f t="shared" si="5"/>
         <v>-2262.9987165522198</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L55">
+        <v>105051.71529167509</v>
+      </c>
+      <c r="M55">
+        <v>-1.2343473433218164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>20409.8586433692</v>
       </c>
@@ -2345,8 +2681,14 @@
         <f t="shared" si="5"/>
         <v>-2291.8704437604902</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L56">
+        <v>105112.90192690361</v>
+      </c>
+      <c r="M56">
+        <v>-1.2493700405602313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>20502.072969138</v>
       </c>
@@ -2380,8 +2722,14 @@
         <f t="shared" si="5"/>
         <v>-2383.8061188239799</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L57">
+        <v>105070.020049567</v>
+      </c>
+      <c r="M57">
+        <v>-1.3000259228025606</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>20594.703930907199</v>
       </c>
@@ -2415,8 +2763,14 @@
         <f t="shared" si="5"/>
         <v>-2321.1430984342301</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L58">
+        <v>105174.86226151639</v>
+      </c>
+      <c r="M58">
+        <v>-1.2645845067277905</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>20687.7534110913</v>
       </c>
@@ -2450,8 +2804,14 @@
         <f t="shared" si="5"/>
         <v>-2414.2278573154999</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L59">
+        <v>105131.40741967056</v>
+      </c>
+      <c r="M59">
+        <v>-1.3158506168806112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>20781.223300609301</v>
       </c>
@@ -2485,8 +2845,14 @@
         <f t="shared" si="5"/>
         <v>-2445.07222463476</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L60">
+        <v>105193.5704685028</v>
+      </c>
+      <c r="M60">
+        <v>-1.3318773758004112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>20875.115498923798</v>
       </c>
@@ -2520,8 +2886,14 @@
         <f t="shared" si="5"/>
         <v>-2445.07222463476</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L61">
+        <v>105193.5704685028</v>
+      </c>
+      <c r="M61">
+        <v>-1.3318773758004112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>20969.431914079501</v>
       </c>
@@ -2555,8 +2927,14 @@
         <f t="shared" si="5"/>
         <v>-2380.9167528842399</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L62">
+        <v>105301.14646760182</v>
+      </c>
+      <c r="M62">
+        <v>-1.2955994506012662</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>21064.174462741801</v>
       </c>
@@ -2590,8 +2968,14 @@
         <f t="shared" si="5"/>
         <v>-2570.7727879035301</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L63">
+        <v>105210.16879993</v>
+      </c>
+      <c r="M63">
+        <v>-1.4001411985088539</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>21159.3450702359</v>
       </c>
@@ -2625,8 +3009,14 @@
         <f t="shared" si="5"/>
         <v>-2603.6624521775302</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L64">
+        <v>105273.29354769381</v>
+      </c>
+      <c r="M64">
+        <v>-1.4172073233223259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>21254.945670585599</v>
       </c>
@@ -2660,8 +3050,14 @@
         <f t="shared" si="5"/>
         <v>-2637.0109814171101</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L65">
+        <v>105337.21683542663</v>
+      </c>
+      <c r="M65">
+        <v>-1.4344919116302737</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>21350.978206553202</v>
       </c>
@@ -2695,8 +3091,14 @@
         <f t="shared" si="5"/>
         <v>-2637.0109814171101</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L66">
+        <v>105337.21683542663</v>
+      </c>
+      <c r="M66">
+        <v>-1.4344919116302737</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>21447.444629678601</v>
       </c>
@@ -2730,8 +3132,14 @@
         <f t="shared" ref="I67:I130" si="11">IMAGINARY(E67)</f>
         <v>-2670.8257039704099</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L67">
+        <v>105401.94957468017</v>
+      </c>
+      <c r="M67">
+        <v>-1.4519980143936451</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>21544.3469003188</v>
       </c>
@@ -2765,8 +3173,14 @@
         <f t="shared" si="11"/>
         <v>-2670.8257039704099</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L68">
+        <v>105401.94957468017</v>
+      </c>
+      <c r="M68">
+        <v>-1.4519980143936451</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>21641.686987688099</v>
       </c>
@@ -2800,8 +3214,14 @@
         <f t="shared" si="11"/>
         <v>-2705.1140874632802</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L69">
+        <v>105467.50284542334</v>
+      </c>
+      <c r="M69">
+        <v>-1.4697287313718879</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>21739.4668698979</v>
       </c>
@@ -2835,8 +3255,14 @@
         <f t="shared" si="11"/>
         <v>-2739.8837419695601</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L70">
+        <v>105533.88789908715</v>
+      </c>
+      <c r="M70">
+        <v>-1.4876872120521198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>21837.688533996999</v>
       </c>
@@ -2870,8 +3296,14 @@
         <f t="shared" si="11"/>
         <v>-2739.8837419695601</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L71">
+        <v>105533.88789908715</v>
+      </c>
+      <c r="M71">
+        <v>-1.4876872120521198</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>21936.353976011898</v>
       </c>
@@ -2905,8 +3337,14 @@
         <f t="shared" si="11"/>
         <v>-2875.7467256274599</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L72">
+        <v>105549.05181063474</v>
+      </c>
+      <c r="M72">
+        <v>-1.5612508070475617</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>22035.465200987499</v>
       </c>
@@ -2940,8 +3378,14 @@
         <f t="shared" si="11"/>
         <v>-2810.8980361744502</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L73">
+        <v>105669.19923698477</v>
+      </c>
+      <c r="M73">
+        <v>-1.5243003168290457</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>22135.0242230275</v>
       </c>
@@ -2975,8 +3419,14 @@
         <f t="shared" si="11"/>
         <v>-2912.7615526040299</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L74">
+        <v>105616.43057946292</v>
+      </c>
+      <c r="M74">
+        <v>-1.5803422395206013</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>22235.0330653358</v>
       </c>
@@ -3010,8 +3460,14 @@
         <f t="shared" si="11"/>
         <v>-2950.2981925334002</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L75">
+        <v>105684.66517699469</v>
+      </c>
+      <c r="M75">
+        <v>-1.5996795537948183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>22335.493760257501</v>
       </c>
@@ -3045,8 +3501,14 @@
         <f t="shared" si="11"/>
         <v>-2950.2981925334002</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L76">
+        <v>105684.66517699469</v>
+      </c>
+      <c r="M76">
+        <v>-1.5996795537948183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>22436.408349319699</v>
       </c>
@@ -3080,8 +3542,14 @@
         <f t="shared" si="11"/>
         <v>-2988.3651070523301</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L77">
+        <v>105753.76737724362</v>
+      </c>
+      <c r="M77">
+        <v>-1.6192662197870868</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>22537.778883273699</v>
       </c>
@@ -3115,8 +3583,14 @@
         <f t="shared" si="11"/>
         <v>-3131.45543523677</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L78">
+        <v>105766.8902190801</v>
+      </c>
+      <c r="M78">
+        <v>-1.6966122647381221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>22639.607422136301</v>
       </c>
@@ -3150,8 +3624,14 @@
         <f t="shared" si="11"/>
         <v>-3026.9709215644998</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L79">
+        <v>105823.74913768384</v>
+      </c>
+      <c r="M79">
+        <v>-1.639105763768844</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>22741.896035231599</v>
       </c>
@@ -3185,8 +3665,14 @@
         <f t="shared" si="11"/>
         <v>-3066.1244290356799</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L80">
+        <v>105894.6226026005</v>
+      </c>
+      <c r="M80">
+        <v>-1.6592017694588963</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>22844.646801233201</v>
       </c>
@@ -3220,8 +3706,14 @@
         <f t="shared" si="11"/>
         <v>-3105.83459389169</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L81">
+        <v>105966.40010652129</v>
+      </c>
+      <c r="M81">
+        <v>-1.6795578791414445</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>22947.8618082065</v>
       </c>
@@ -3255,8 +3747,14 @@
         <f t="shared" si="11"/>
         <v>-3146.1105560225701</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L82">
+        <v>106039.09417771957</v>
+      </c>
+      <c r="M82">
+        <v>-1.7001777948103318</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>23051.543153651099</v>
       </c>
@@ -3290,8 +3788,14 @@
         <f t="shared" si="11"/>
         <v>-3296.78148341421</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L83">
+        <v>106052.6924298239</v>
+      </c>
+      <c r="M83">
+        <v>-1.7813984410530028</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>23155.692944543101</v>
       </c>
@@ -3325,8 +3829,14 @@
         <f t="shared" si="11"/>
         <v>-3296.78148341421</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L84">
+        <v>106052.6924298239</v>
+      </c>
+      <c r="M84">
+        <v>-1.7813984410530028</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>23260.3132973785</v>
       </c>
@@ -3360,8 +3870,14 @@
         <f t="shared" si="11"/>
         <v>-3339.5959100583</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L85">
+        <v>106126.43553198843</v>
+      </c>
+      <c r="M85">
+        <v>-1.8032862745296621</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>23365.406338215598</v>
       </c>
@@ -3395,8 +3911,14 @@
         <f t="shared" si="11"/>
         <v>-3270.4273440975799</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L86">
+        <v>106262.8040595858</v>
+      </c>
+      <c r="M86">
+        <v>-1.7636583181004244</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>23470.9742027186</v>
       </c>
@@ -3430,8 +3952,14 @@
         <f t="shared" si="11"/>
         <v>-3494.18739106679</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L87">
+        <v>106137.40144627888</v>
+      </c>
+      <c r="M87">
+        <v>-1.8865957614665454</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>23577.0190362012</v>
       </c>
@@ -3465,8 +3993,14 @@
         <f t="shared" si="11"/>
         <v>-3650.68817339924</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L88">
+        <v>106145.54100385772</v>
+      </c>
+      <c r="M88">
+        <v>-1.9709757199317823</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>23683.5429936695</v>
       </c>
@@ -3500,8 +4034,14 @@
         <f t="shared" si="11"/>
         <v>-3809.04746190274</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L89">
+        <v>106150.78004264615</v>
+      </c>
+      <c r="M89">
+        <v>-2.0564069900790214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>23790.548239866301</v>
       </c>
@@ -3535,8 +4075,14 @@
         <f t="shared" si="11"/>
         <v>-3632.4809484520601</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L90">
+        <v>106364.57940664024</v>
+      </c>
+      <c r="M90">
+        <v>-1.9571017563276476</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>23898.036949315101</v>
       </c>
@@ -3570,8 +4116,14 @@
         <f t="shared" si="11"/>
         <v>-3679.9116768706199</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L91">
+        <v>106442.25144263689</v>
+      </c>
+      <c r="M91">
+        <v>-1.981219190785491</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>24006.011306363998</v>
       </c>
@@ -3605,8 +4157,14 @@
         <f t="shared" si="11"/>
         <v>-3728.0274486426201</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L92">
+        <v>106520.91913568025</v>
+      </c>
+      <c r="M92">
+        <v>-2.0056517514258374</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>24114.473505230399</v>
       </c>
@@ -3640,8 +4198,14 @@
         <f t="shared" si="11"/>
         <v>-3657.03849731125</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L93">
+        <v>106669.77613359201</v>
+      </c>
+      <c r="M93">
+        <v>-1.9646984116468085</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>24223.4257500454</v>
       </c>
@@ -3675,8 +4239,14 @@
         <f t="shared" si="11"/>
         <v>-3946.0142467529399</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L94">
+        <v>106608.96078389297</v>
+      </c>
+      <c r="M94">
+        <v>-2.1212252460728922</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>24332.8702548988</v>
       </c>
@@ -3710,8 +4280,14 @@
         <f t="shared" si="11"/>
         <v>-3997.7549945354899</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L95">
+        <v>106689.69478538107</v>
+      </c>
+      <c r="M95">
+        <v>-2.1474250566142903</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>24442.809243883501</v>
       </c>
@@ -3745,8 +4321,14 @@
         <f t="shared" si="11"/>
         <v>-3997.7549945354899</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L96">
+        <v>106689.69478538107</v>
+      </c>
+      <c r="M96">
+        <v>-2.1474250566142903</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>24553.244951141602</v>
       </c>
@@ -3780,8 +4362,14 @@
         <f t="shared" si="11"/>
         <v>-4050.24818010528</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L97">
+        <v>106771.46538115057</v>
+      </c>
+      <c r="M97">
+        <v>-2.1739686456393086</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>24664.179620909101</v>
       </c>
@@ -3815,8 +4403,14 @@
         <f t="shared" si="11"/>
         <v>-4103.50655265364</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L98">
+        <v>106854.28707649981</v>
+      </c>
+      <c r="M98">
+        <v>-2.2008610184525348</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>24775.615507561801</v>
       </c>
@@ -3850,8 +4444,14 @@
         <f t="shared" si="11"/>
         <v>-4157.54312077144</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L99">
+        <v>106938.17460757884</v>
+      </c>
+      <c r="M99">
+        <v>-2.2281072653096912</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>24887.554875661099</v>
       </c>
@@ -3885,8 +4485,14 @@
         <f t="shared" si="11"/>
         <v>-4337.8775098439701</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L100">
+        <v>106943.31450244199</v>
+      </c>
+      <c r="M100">
+        <v>-2.3246921020603857</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>24999.999999999902</v>
       </c>
@@ -3920,8 +4526,14 @@
         <f t="shared" si="11"/>
         <v>-4268.0042130538604</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L101">
+        <v>107109.2073016323</v>
+      </c>
+      <c r="M101">
+        <v>-2.2836821773675711</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>26999.999999999902</v>
       </c>
@@ -3955,8 +4567,14 @@
         <f t="shared" si="11"/>
         <v>-6598.6351864286598</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L102">
+        <v>108500.41731814262</v>
+      </c>
+      <c r="M102">
+        <v>-3.4866907109630043</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>27100.475062749501</v>
       </c>
@@ -3990,8 +4608,14 @@
         <f t="shared" si="11"/>
         <v>-6623.99764369898</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L103">
+        <v>108837.67580969915</v>
+      </c>
+      <c r="M103">
+        <v>-3.4892494501831139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>27201.324023211499</v>
       </c>
@@ -4025,8 +4649,14 @@
         <f t="shared" si="11"/>
         <v>-6870.5078869418503</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L104">
+        <v>108817.50663344101</v>
+      </c>
+      <c r="M104">
+        <v>-3.6199424969709399</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>27302.548272770899</v>
       </c>
@@ -4060,8 +4690,14 @@
         <f t="shared" si="11"/>
         <v>-6963.9237531661902</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L105">
+        <v>108925.94917657698</v>
+      </c>
+      <c r="M105">
+        <v>-3.6655705770255347</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>27404.149207990598</v>
       </c>
@@ -4095,8 +4731,14 @@
         <f t="shared" si="11"/>
         <v>-7215.6401267779902</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L106">
+        <v>108900.05268806938</v>
+      </c>
+      <c r="M106">
+        <v>-3.7991610177893587</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>27506.1282306303</v>
       </c>
@@ -4130,8 +4772,14 @@
         <f t="shared" si="11"/>
         <v>-7413.5743384267798</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L107">
+        <v>109120.03100721187</v>
+      </c>
+      <c r="M107">
+        <v>-3.8956548104065631</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>27608.4867476662</v>
       </c>
@@ -4165,8 +4813,14 @@
         <f t="shared" si="11"/>
         <v>-7514.8393169832798</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L108">
+        <v>109232.15626517603</v>
+      </c>
+      <c r="M108">
+        <v>-3.9448910016872496</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>27711.226171310402</v>
       </c>
@@ -4200,8 +4854,14 @@
         <f t="shared" si="11"/>
         <v>-7617.6735790063703</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L109">
+        <v>109345.73215028827</v>
+      </c>
+      <c r="M109">
+        <v>-3.9948003395075324</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>27814.3479190301</v>
       </c>
@@ -4235,8 +4895,14 @@
         <f t="shared" si="11"/>
         <v>-7828.1657561796201</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L110">
+        <v>109577.31733078047</v>
+      </c>
+      <c r="M110">
+        <v>-4.0966804318703307</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>27917.853413567202</v>
       </c>
@@ -4270,8 +4936,14 @@
         <f t="shared" si="11"/>
         <v>-7935.8831687092897</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L111">
+        <v>109695.36817658323</v>
+      </c>
+      <c r="M111">
+        <v>-4.1486726591968326</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>28021.744082958401</v>
       </c>
@@ -4305,8 +4977,14 @@
         <f t="shared" si="11"/>
         <v>-8493.7220360546398</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L112">
+        <v>109617.03045265857</v>
+      </c>
+      <c r="M112">
+        <v>-4.4440423314607616</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>28126.021360554299</v>
       </c>
@@ -4340,8 +5018,14 @@
         <f t="shared" si="11"/>
         <v>-8442.0107714472106</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L113">
+        <v>109898.41744125393</v>
+      </c>
+      <c r="M113">
+        <v>-4.4056007271236055</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>28230.6866850394</v>
       </c>
@@ -4375,8 +5059,14 @@
         <f t="shared" si="11"/>
         <v>-8677.2744034118496</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L114">
+        <v>110143.82474832491</v>
+      </c>
+      <c r="M114">
+        <v>-4.5185186323986084</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>28335.741500452099</v>
       </c>
@@ -4410,8 +5100,14 @@
         <f t="shared" si="11"/>
         <v>-9096.6212946436208</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L115">
+        <v>110222.19819418958</v>
+      </c>
+      <c r="M115">
+        <v>-4.7339964116992714</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>28441.187256204499</v>
       </c>
@@ -4445,8 +5141,14 @@
         <f t="shared" si="11"/>
         <v>-9351.3115801485092</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L116">
+        <v>110475.3215975926</v>
+      </c>
+      <c r="M116">
+        <v>-4.8556779139756472</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>28547.025407102301</v>
       </c>
@@ -4480,8 +5182,14 @@
         <f t="shared" si="11"/>
         <v>-9832.9379401121605</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L117">
+        <v>110232.05420811678</v>
+      </c>
+      <c r="M117">
+        <v>-5.1177099279443974</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>28653.257413365001</v>
       </c>
@@ -4515,8 +5223,14 @@
         <f t="shared" si="11"/>
         <v>-9930.8817121282791</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L118">
+        <v>110677.15899254625</v>
+      </c>
+      <c r="M118">
+        <v>-5.1479809463360482</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>28759.884740646001</v>
       </c>
@@ -4550,8 +5264,14 @@
         <f t="shared" si="11"/>
         <v>-10069.7068381519</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L119">
+        <v>110808.35600874029</v>
+      </c>
+      <c r="M119">
+        <v>-5.2139458811965884</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>28866.908860053001</v>
       </c>
@@ -4585,8 +5305,14 @@
         <f t="shared" si="11"/>
         <v>-10537.1470757885</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L120">
+        <v>110873.50388999454</v>
+      </c>
+      <c r="M120">
+        <v>-5.453481517895721</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>28974.3312481678</v>
       </c>
@@ -4620,8 +5346,14 @@
         <f t="shared" si="11"/>
         <v>-10834.8112226905</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L121">
+        <v>111141.67202954701</v>
+      </c>
+      <c r="M121">
+        <v>-5.5944495213213221</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>29082.153387067301</v>
       </c>
@@ -4655,8 +5387,14 @@
         <f t="shared" si="11"/>
         <v>-11142.132249554699</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L122">
+        <v>111416.72948897121</v>
+      </c>
+      <c r="M122">
+        <v>-5.7394078614543034</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>29190.3767643436</v>
       </c>
@@ -4690,8 +5428,14 @@
         <f t="shared" si="11"/>
         <v>-11459.4819933734</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L123">
+        <v>111698.86107045607</v>
+      </c>
+      <c r="M123">
+        <v>-5.8884863747079832</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>29299.002873124398</v>
       </c>
@@ -4725,8 +5469,14 @@
         <f t="shared" si="11"/>
         <v>-12168.1248728967</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L124">
+        <v>111520.9297227397</v>
+      </c>
+      <c r="M124">
+        <v>-6.264052923356747</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>29408.033212093898</v>
       </c>
@@ -4760,8 +5510,14 @@
         <f t="shared" si="11"/>
         <v>-12514.662489935699</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L125">
+        <v>111803.17147585691</v>
+      </c>
+      <c r="M125">
+        <v>-6.4268587333441625</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>29517.469285513402</v>
       </c>
@@ -4795,8 +5551,14 @@
         <f t="shared" si="11"/>
         <v>-12677.481133154801</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L126">
+        <v>112342.74415762244</v>
+      </c>
+      <c r="M126">
+        <v>-6.4794277667641484</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>29627.312603242099</v>
       </c>
@@ -4830,8 +5592,14 @@
         <f t="shared" si="11"/>
         <v>-13434.149142841499</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L127">
+        <v>112127.83004320218</v>
+      </c>
+      <c r="M127">
+        <v>-6.8811958557753981</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>29737.564680757299</v>
       </c>
@@ -4865,8 +5633,14 @@
         <f t="shared" si="11"/>
         <v>-13819.7189292199</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L128">
+        <v>112423.7169855087</v>
+      </c>
+      <c r="M128">
+        <v>-7.0609601009675131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>29848.2270391766</v>
       </c>
@@ -4900,8 +5674,14 @@
         <f t="shared" si="11"/>
         <v>-14422.0851019689</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L129">
+        <v>112881.39342738627</v>
+      </c>
+      <c r="M129">
+        <v>-7.3403537436387118</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>29959.301205277501</v>
       </c>
@@ -4935,8 +5715,14 @@
         <f t="shared" si="11"/>
         <v>-15037.258197697</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L130">
+        <v>112901.23479776761</v>
+      </c>
+      <c r="M130">
+        <v>-7.6539400368176178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>30070.788711519501</v>
       </c>
@@ -4970,8 +5756,14 @@
         <f t="shared" ref="I131:I194" si="17">IMAGINARY(E131)</f>
         <v>-15889.6540064046</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L131">
+        <v>113061.49381499573</v>
+      </c>
+      <c r="M131">
+        <v>-8.0790906492599657</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>30182.6910960647</v>
       </c>
@@ -5005,8 +5797,14 @@
         <f t="shared" si="17"/>
         <v>-16775.4054472151</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L132">
+        <v>113206.00582441443</v>
+      </c>
+      <c r="M132">
+        <v>-8.5217457000492836</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>30295.009902799098</v>
       </c>
@@ -5040,8 +5838,14 @@
         <f t="shared" si="17"/>
         <v>-17261.904519053602</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L133">
+        <v>113521.2880205105</v>
+      </c>
+      <c r="M133">
+        <v>-8.7462527040233287</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>30407.746681354001</v>
       </c>
@@ -5075,8 +5879,14 @@
         <f t="shared" si="17"/>
         <v>-18207.570297996299</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L134">
+        <v>113648.1225874661</v>
+      </c>
+      <c r="M134">
+        <v>-9.2190879162339847</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>30520.902987127502</v>
       </c>
@@ -5110,8 +5920,14 @@
         <f t="shared" si="17"/>
         <v>-19187.153910461799</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L135">
+        <v>113754.49075304563</v>
+      </c>
+      <c r="M135">
+        <v>-9.7105930519596413</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>30634.4803813055</v>
       </c>
@@ -5145,8 +5961,14 @@
         <f t="shared" si="17"/>
         <v>-20200.229281005399</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L136">
+        <v>113838.25186956098</v>
+      </c>
+      <c r="M136">
+        <v>-10.221076144775552</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>30748.480430883701</v>
       </c>
@@ -5180,8 +6002,14 @@
         <f t="shared" si="17"/>
         <v>-21086.989273505202</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L137">
+        <v>114318.72104790389</v>
+      </c>
+      <c r="M137">
+        <v>-10.629527445273418</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>30862.904708689199</v>
       </c>
@@ -5215,8 +6043,14 @@
         <f t="shared" si="17"/>
         <v>-22176.586899751401</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L138">
+        <v>114372.17234693559</v>
+      </c>
+      <c r="M138">
+        <v>-11.180381273422055</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>30977.7547934018</v>
       </c>
@@ -5250,8 +6084,14 @@
         <f t="shared" si="17"/>
         <v>-23432.322292877601</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L139">
+        <v>113930.91727769967</v>
+      </c>
+      <c r="M139">
+        <v>-11.868800374442051</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>31093.032269576201</v>
       </c>
@@ -5285,8 +6125,14 @@
         <f t="shared" si="17"/>
         <v>-24918.836100477401</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L140">
+        <v>114048.4976031207</v>
+      </c>
+      <c r="M140">
+        <v>-12.620554461135949</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>31208.7387276636</v>
       </c>
@@ -5320,8 +6166,14 @@
         <f t="shared" si="17"/>
         <v>-26098.053572369899</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L141">
+        <v>113979.10353444623</v>
+      </c>
+      <c r="M141">
+        <v>-13.236572289251576</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>31324.875764033899</v>
       </c>
@@ -5355,8 +6207,14 @@
         <f t="shared" si="17"/>
         <v>-27685.457992606101</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L142">
+        <v>114010.17083958411</v>
+      </c>
+      <c r="M142">
+        <v>-14.053820411330488</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>31441.444980997399</v>
       </c>
@@ -5390,8 +6248,14 @@
         <f t="shared" si="17"/>
         <v>-29367.1175700815</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L143">
+        <v>113405.71989483734</v>
+      </c>
+      <c r="M143">
+        <v>-15.008137485566138</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>31558.447986827199</v>
       </c>
@@ -5425,8 +6289,14 @@
         <f t="shared" si="17"/>
         <v>-31028.181686279</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L144">
+        <v>112679.61782230763</v>
+      </c>
+      <c r="M144">
+        <v>-15.983850908793082</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>31675.886395781101</v>
       </c>
@@ -5460,8 +6330,14 @@
         <f t="shared" si="17"/>
         <v>-32652.4448761403</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L145">
+        <v>111827.39883717256</v>
+      </c>
+      <c r="M145">
+        <v>-16.977112055777674</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>31793.761828124199</v>
       </c>
@@ -5495,8 +6371,14 @@
         <f t="shared" si="17"/>
         <v>-34223.121914440198</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L146">
+        <v>110845.83267489276</v>
+      </c>
+      <c r="M146">
+        <v>-17.983628389359545</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>31912.075910151099</v>
       </c>
@@ -5530,8 +6412,14 @@
         <f t="shared" si="17"/>
         <v>-36324.589471499399</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L147">
+        <v>110476.59080674319</v>
+      </c>
+      <c r="M147">
+        <v>-19.195894182815447</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>32030.8302742083</v>
       </c>
@@ -5565,8 +6453,14 @@
         <f t="shared" si="17"/>
         <v>-37792.054017418202</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L148">
+        <v>109228.29814128393</v>
+      </c>
+      <c r="M148">
+        <v>-20.242327496961714</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>32150.026558716501</v>
       </c>
@@ -5600,8 +6494,14 @@
         <f t="shared" si="17"/>
         <v>-39057.1387207156</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L149">
+        <v>106379.34302561205</v>
+      </c>
+      <c r="M149">
+        <v>-21.539935948465327</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>32269.6664081938</v>
       </c>
@@ -5635,8 +6535,14 @@
         <f t="shared" si="17"/>
         <v>-40517.333017358003</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L150">
+        <v>105556.59993323438</v>
+      </c>
+      <c r="M150">
+        <v>-22.572031588748857</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>32389.751473278</v>
       </c>
@@ -5670,8 +6576,14 @@
         <f t="shared" si="17"/>
         <v>-40798.805932381198</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L151">
+        <v>101594.84383356108</v>
+      </c>
+      <c r="M151">
+        <v>-23.67720376366119</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>32510.2834107491</v>
       </c>
@@ -5705,8 +6617,14 @@
         <f t="shared" si="17"/>
         <v>-41006.022221289299</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L152">
+        <v>98230.892933786497</v>
+      </c>
+      <c r="M152">
+        <v>-24.673401835762085</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>32631.2638835529</v>
       </c>
@@ -5740,8 +6658,14 @@
         <f t="shared" si="17"/>
         <v>-40495.314770921497</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L153">
+        <v>94928.193238577995</v>
+      </c>
+      <c r="M153">
+        <v>-25.251277942903013</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>32752.694560823202</v>
       </c>
@@ -5775,8 +6699,14 @@
         <f t="shared" si="17"/>
         <v>-39472.532331937196</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L154">
+        <v>90819.805957084725</v>
+      </c>
+      <c r="M154">
+        <v>-25.761416353505428</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>32874.577117905297</v>
       </c>
@@ -5810,8 +6740,14 @@
         <f t="shared" si="17"/>
         <v>-38392.2684771188</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L155">
+        <v>87582.973124853335</v>
+      </c>
+      <c r="M155">
+        <v>-25.998850079777057</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>32996.913236378998</v>
       </c>
@@ -5845,8 +6781,14 @@
         <f t="shared" si="17"/>
         <v>-36005.795612949798</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L156">
+        <v>83344.365068658852</v>
+      </c>
+      <c r="M156">
+        <v>-25.595337330664162</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>33119.704604081497</v>
       </c>
@@ -5880,8 +6822,14 @@
         <f t="shared" si="17"/>
         <v>-33116.430974312199</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L157">
+        <v>79900.569326386816</v>
+      </c>
+      <c r="M157">
+        <v>-24.485977393526284</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>33242.952915131202</v>
       </c>
@@ -5915,8 +6863,14 @@
         <f t="shared" si="17"/>
         <v>-30252.3393867183</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L158">
+        <v>76789.81355087916</v>
+      </c>
+      <c r="M158">
+        <v>-23.201309897742075</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>33366.659869950898</v>
       </c>
@@ -5950,8 +6904,14 @@
         <f t="shared" si="17"/>
         <v>-26309.143817221298</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L159">
+        <v>73560.340037720744</v>
+      </c>
+      <c r="M159">
+        <v>-20.95618481469759</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>33490.827175290797</v>
       </c>
@@ -5985,8 +6945,14 @@
         <f t="shared" si="17"/>
         <v>-23295.2252595512</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L160">
+        <v>71936.813661543216</v>
+      </c>
+      <c r="M160">
+        <v>-18.894644413783478</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>33615.456544252702</v>
       </c>
@@ -6020,8 +6986,14 @@
         <f t="shared" si="17"/>
         <v>-20875.434763456498</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L161">
+        <v>70825.684629537413</v>
+      </c>
+      <c r="M161">
+        <v>-17.142177964783919</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>33740.549696313501</v>
       </c>
@@ -6055,8 +7027,14 @@
         <f t="shared" si="17"/>
         <v>-17518.690929169301</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L162">
+        <v>69961.507707750643</v>
+      </c>
+      <c r="M162">
+        <v>-14.501462022022062</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>33866.108357348399</v>
       </c>
@@ -6090,8 +7068,14 @@
         <f t="shared" si="17"/>
         <v>-15181.1453684471</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L163">
+        <v>69739.893544247621</v>
+      </c>
+      <c r="M163">
+        <v>-12.572943854863864</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>33992.134259655402</v>
       </c>
@@ -6125,8 +7109,14 @@
         <f t="shared" si="17"/>
         <v>-12079.073855275999</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L164">
+        <v>69598.062597707627</v>
+      </c>
+      <c r="M164">
+        <v>-9.9945640382046381</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>34118.629141978803</v>
       </c>
@@ -6160,8 +7150,14 @@
         <f t="shared" si="17"/>
         <v>-10255.354952208199</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L165">
+        <v>70299.456243598048</v>
+      </c>
+      <c r="M165">
+        <v>-8.3882992491116077</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>34245.5947495332</v>
       </c>
@@ -6195,8 +7191,14 @@
         <f t="shared" si="17"/>
         <v>-7763.4783266771901</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L166">
+        <v>70853.872510703455</v>
+      </c>
+      <c r="M166">
+        <v>-6.2905444322341433</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>34373.032834027901</v>
       </c>
@@ -6230,8 +7232,14 @@
         <f t="shared" si="17"/>
         <v>-6486.22748806454</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L167">
+        <v>71780.240011675327</v>
+      </c>
+      <c r="M167">
+        <v>-5.1844502046871348</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>34500.945153690598</v>
       </c>
@@ -6265,8 +7273,14 @@
         <f t="shared" si="17"/>
         <v>-4911.77783015553</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L168">
+        <v>72657.720552561965</v>
+      </c>
+      <c r="M168">
+        <v>-3.8762423275951523</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>34629.333473291998</v>
       </c>
@@ -6300,8 +7314,14 @@
         <f t="shared" si="17"/>
         <v>-3413.6196436753798</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L169">
+        <v>73582.145958721303</v>
+      </c>
+      <c r="M169">
+        <v>-2.6590176335488933</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>34758.199564169998</v>
       </c>
@@ -6335,8 +7355,14 @@
         <f t="shared" si="17"/>
         <v>-2310.25550112378</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L170">
+        <v>74796.757435156076</v>
+      </c>
+      <c r="M170">
+        <v>-1.7699824187867781</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>34887.545204254202</v>
       </c>
@@ -6370,8 +7396,14 @@
         <f t="shared" si="17"/>
         <v>-1923.2423112301999</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L171">
+        <v>75840.243658113104</v>
+      </c>
+      <c r="M171">
+        <v>-1.4531266801402389</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>35017.3721780903</v>
       </c>
@@ -6405,8 +7437,14 @@
         <f t="shared" si="17"/>
         <v>-932.81072380102205</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L172">
+        <v>76823.958854757628</v>
+      </c>
+      <c r="M172">
+        <v>-0.69571305262182193</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>35147.682276865104</v>
       </c>
@@ -6440,8 +7478,14 @@
         <f t="shared" si="17"/>
         <v>-301.30273569471598</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L173">
+        <v>77816.891481234416</v>
+      </c>
+      <c r="M173">
+        <v>-0.22184667002291888</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>35278.477298430698</v>
       </c>
@@ -6475,8 +7519,14 @@
         <f t="shared" si="17"/>
         <v>293.57489102692603</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L174">
+        <v>78601.673917274777</v>
+      </c>
+      <c r="M174">
+        <v>0.21399851296686637</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>35409.7590473296</v>
       </c>
@@ -6510,8 +7560,14 @@
         <f t="shared" si="17"/>
         <v>1135.61450388088</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L175">
+        <v>79583.531339058376</v>
+      </c>
+      <c r="M175">
+        <v>0.81760793255561826</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>35541.529334819497</v>
       </c>
@@ -6545,8 +7601,14 @@
         <f t="shared" si="17"/>
         <v>1371.2302038775299</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L176">
+        <v>80520.633163147577</v>
+      </c>
+      <c r="M176">
+        <v>0.97576854835611493</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>35673.789978898603</v>
       </c>
@@ -6580,8 +7642,14 @@
         <f t="shared" si="17"/>
         <v>1599.27904981952</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L177">
+        <v>81254.017113619964</v>
+      </c>
+      <c r="M177">
+        <v>1.1277947905003376</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>35806.542804329903</v>
       </c>
@@ -6615,8 +7683,14 @@
         <f t="shared" si="17"/>
         <v>1812.1939956931001</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L178">
+        <v>81970.032621091392</v>
+      </c>
+      <c r="M178">
+        <v>1.2667986616523532</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>35939.789642667398</v>
       </c>
@@ -6650,8 +7724,14 @@
         <f t="shared" si="17"/>
         <v>2261.1893532417598</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L179">
+        <v>82699.378408175282</v>
+      </c>
+      <c r="M179">
+        <v>1.5667923665700141</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>36073.532332280498</v>
       </c>
@@ -6685,8 +7765,14 @@
         <f t="shared" si="17"/>
         <v>2436.8411084014201</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L180">
+        <v>83383.187165311247</v>
+      </c>
+      <c r="M180">
+        <v>1.6746852421567033</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>36207.7727183799</v>
       </c>
@@ -6720,8 +7806,14 @@
         <f t="shared" si="17"/>
         <v>2598.1591377295399</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L181">
+        <v>84049.174363229773</v>
+      </c>
+      <c r="M181">
+        <v>1.7714305083342377</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>36342.512653042999</v>
       </c>
@@ -6755,8 +7847,14 @@
         <f t="shared" si="17"/>
         <v>2745.4787137690601</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L182">
+        <v>84697.303762591459</v>
+      </c>
+      <c r="M182">
+        <v>1.8575786578406441</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>36477.753995239</v>
       </c>
@@ -6790,8 +7888,14 @@
         <f t="shared" si="17"/>
         <v>2680.1252388389198</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L183">
+        <v>85140.871075375864</v>
+      </c>
+      <c r="M183">
+        <v>1.8038955296382992</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>36613.498610855102</v>
       </c>
@@ -6825,8 +7929,14 @@
         <f t="shared" si="17"/>
         <v>3239.2415349639</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L184">
+        <v>85846.689266396439</v>
+      </c>
+      <c r="M184">
+        <v>2.1624472569701396</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>36749.748372722097</v>
       </c>
@@ -6860,8 +7970,14 @@
         <f t="shared" si="17"/>
         <v>3159.6900321880498</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L185">
+        <v>86262.914010321823</v>
+      </c>
+      <c r="M185">
+        <v>2.0991339261977644</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>36886.505160639899</v>
       </c>
@@ -6895,8 +8011,14 @@
         <f t="shared" si="17"/>
         <v>3285.07866667178</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L186">
+        <v>86716.921031217906</v>
+      </c>
+      <c r="M186">
+        <v>2.17104331384584</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>37023.7708614039</v>
       </c>
@@ -6930,8 +8052,14 @@
         <f t="shared" si="17"/>
         <v>3175.2478041659201</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L187">
+        <v>87240.827163715963</v>
+      </c>
+      <c r="M187">
+        <v>2.0858180112653995</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>37161.547368830797</v>
       </c>
@@ -6965,8 +8093,14 @@
         <f t="shared" si="17"/>
         <v>3285.8345086056802</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L188">
+        <v>87670.841113532908</v>
+      </c>
+      <c r="M188">
+        <v>2.1479040305732315</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>37299.836583784701</v>
       </c>
@@ -7000,8 +8134,14 @@
         <f t="shared" si="17"/>
         <v>3387.2951292791399</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L189">
+        <v>88091.770113418461</v>
+      </c>
+      <c r="M189">
+        <v>2.2036743274070849</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>37438.640414203401</v>
       </c>
@@ -7035,8 +8175,14 @@
         <f t="shared" si="17"/>
         <v>3328.3065999340402</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L190">
+        <v>88332.491655200123</v>
+      </c>
+      <c r="M190">
+        <v>2.1593761212092262</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>37577.960775124797</v>
       </c>
@@ -7070,8 +8216,14 @@
         <f t="shared" si="17"/>
         <v>3595.79130176424</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L191">
+        <v>88791.500742092816</v>
+      </c>
+      <c r="M191">
+        <v>2.3209430960628814</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>37717.799588713002</v>
       </c>
@@ -7105,8 +8257,14 @@
         <f t="shared" si="17"/>
         <v>3328.1237245027601</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L192">
+        <v>89079.705521357086</v>
+      </c>
+      <c r="M192">
+        <v>2.1411367718034229</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>37858.158784285297</v>
       </c>
@@ -7140,8 +8298,14 @@
         <f t="shared" si="17"/>
         <v>3406.8812346914301</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L193">
+        <v>89464.894626755806</v>
+      </c>
+      <c r="M193">
+        <v>2.1823881356952115</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>37999.040298338499</v>
       </c>
@@ -7175,8 +8339,14 @@
         <f t="shared" si="17"/>
         <v>3315.0322357844102</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L194">
+        <v>89787.945777671994</v>
+      </c>
+      <c r="M194">
+        <v>2.1158801738087472</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>38140.446074575499</v>
       </c>
@@ -7210,8 +8380,14 @@
         <f t="shared" ref="I195:I258" si="23">IMAGINARY(E195)</f>
         <v>3382.9861313845399</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L195">
+        <v>90154.109459665575</v>
+      </c>
+      <c r="M195">
+        <v>2.1504992498098603</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>38282.3780639326</v>
       </c>
@@ -7245,8 +8421,14 @@
         <f t="shared" si="23"/>
         <v>3475.5443275440098</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L196">
+        <v>90411.506833018269</v>
+      </c>
+      <c r="M196">
+        <v>2.203072438914373</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>38424.838224605803</v>
       </c>
@@ -7280,8 +8462,14 @@
         <f t="shared" si="23"/>
         <v>3259.73080238578</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L197">
+        <v>90557.888404201192</v>
+      </c>
+      <c r="M197">
+        <v>2.0628702532380445</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>38567.828522078402</v>
       </c>
@@ -7315,8 +8503,14 @@
         <f t="shared" si="23"/>
         <v>3316.8453647157298</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L198">
+        <v>90902.306689267687</v>
+      </c>
+      <c r="M198">
+        <v>2.0910738383482097</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>38711.350929147702</v>
       </c>
@@ -7350,8 +8544,14 @@
         <f t="shared" si="23"/>
         <v>3398.9481423603202</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L199">
+        <v>91145.0869284699</v>
+      </c>
+      <c r="M199">
+        <v>2.1371480984509135</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>38855.407425952399</v>
       </c>
@@ -7385,8 +8585,14 @@
         <f t="shared" si="23"/>
         <v>3475.8490694050802</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L200">
+        <v>91384.766188070847</v>
+      </c>
+      <c r="M200">
+        <v>2.1797892555512868</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>39000</v>
       </c>
@@ -7420,8 +8626,14 @@
         <f t="shared" si="23"/>
         <v>3377.7229632664898</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L201">
+        <v>91654.83147672005</v>
+      </c>
+      <c r="M201">
+        <v>2.1119792568204407</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>39082.089509999998</v>
       </c>
@@ -7455,8 +8667,14 @@
         <f t="shared" si="23"/>
         <v>3345.4942326037599</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L202">
+        <v>91743.117308225774</v>
+      </c>
+      <c r="M202">
+        <v>2.0898048050806532</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>39201.137280000003</v>
       </c>
@@ -7490,8 +8708,14 @@
         <f t="shared" si="23"/>
         <v>3413.8831530522398</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L203">
+        <v>91970.849203702921</v>
+      </c>
+      <c r="M203">
+        <v>2.1272614489183694</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>39320.547689999999</v>
       </c>
@@ -7525,8 +8749,14 @@
         <f t="shared" si="23"/>
         <v>3477.4507432497899</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L204">
+        <v>92195.455171473543</v>
+      </c>
+      <c r="M204">
+        <v>2.1616089829884024</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>39440.321839999997</v>
       </c>
@@ -7560,8 +8790,14 @@
         <f t="shared" si="23"/>
         <v>3284.1047750315602</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L205">
+        <v>92306.943868873306</v>
+      </c>
+      <c r="M205">
+        <v>2.0389047070505026</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>39560.460830000004</v>
       </c>
@@ -7595,8 +8831,14 @@
         <f t="shared" si="23"/>
         <v>3252.2804567359799</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L206">
+        <v>92388.914607920771</v>
+      </c>
+      <c r="M206">
+        <v>2.017346470594517</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>39680.965770000003</v>
       </c>
@@ -7630,8 +8872,14 @@
         <f t="shared" si="23"/>
         <v>3189.3723322593801</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L207">
+        <v>92550.438658152605</v>
+      </c>
+      <c r="M207">
+        <v>1.9748557045435806</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>39801.837780000002</v>
       </c>
@@ -7665,8 +8913,14 @@
         <f t="shared" si="23"/>
         <v>3127.4474419353201</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L208">
+        <v>92708.783039830916</v>
+      </c>
+      <c r="M208">
+        <v>1.9331883839057411</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>39923.077980000002</v>
       </c>
@@ -7700,8 +8954,14 @@
         <f t="shared" si="23"/>
         <v>3215.82687480402</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L209">
+        <v>92837.908821383011</v>
+      </c>
+      <c r="M209">
+        <v>1.9850745942637353</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>40044.687489999997</v>
       </c>
@@ -7735,8 +8995,14 @@
         <f t="shared" si="23"/>
         <v>3152.97602619798</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L210">
+        <v>92990.665011354184</v>
+      </c>
+      <c r="M210">
+        <v>1.9430644068951688</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>40166.667439999997</v>
       </c>
@@ -7770,8 +9036,14 @@
         <f t="shared" si="23"/>
         <v>3350.9796657511602</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L211">
+        <v>93171.105976363498</v>
+      </c>
+      <c r="M211">
+        <v>2.0611369472348651</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>40289.018940000002</v>
       </c>
@@ -7805,8 +9077,14 @@
         <f t="shared" si="23"/>
         <v>3284.9949106208301</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L212">
+        <v>93317.416120760987</v>
+      </c>
+      <c r="M212">
+        <v>2.0173644620721101</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>40411.743139999999</v>
       </c>
@@ -7840,8 +9118,14 @@
         <f t="shared" si="23"/>
         <v>3252.4084081619999</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L213">
+        <v>93389.465993701873</v>
+      </c>
+      <c r="M213">
+        <v>1.9958028800768304</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>40534.84117</v>
       </c>
@@ -7875,8 +9159,14 @@
         <f t="shared" si="23"/>
         <v>3188.0420438078199</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L214">
+        <v>93531.386995620152</v>
+      </c>
+      <c r="M214">
+        <v>1.9533201407545027</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>40658.314169999998</v>
       </c>
@@ -7910,8 +9200,14 @@
         <f t="shared" si="23"/>
         <v>3156.2600632429799</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L215">
+        <v>93601.270694817271</v>
+      </c>
+      <c r="M215">
+        <v>1.9323954453976544</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>40782.163280000001</v>
       </c>
@@ -7945,8 +9241,14 @@
         <f t="shared" si="23"/>
         <v>3198.0701087125299</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L216">
+        <v>93790.39729959445</v>
+      </c>
+      <c r="M216">
+        <v>1.954053411210418</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>40906.389649999997</v>
       </c>
@@ -7980,8 +9282,14 @@
         <f t="shared" si="23"/>
         <v>3134.20318846189</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L217">
+        <v>93924.298369581971</v>
+      </c>
+      <c r="M217">
+        <v>1.9122842727228917</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>41030.994420000003</v>
       </c>
@@ -8015,8 +9323,14 @@
         <f t="shared" si="23"/>
         <v>3102.6771892976399</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L218">
+        <v>93990.223398715796</v>
+      </c>
+      <c r="M218">
+        <v>1.8917138790259973</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>41155.978750000002</v>
       </c>
@@ -8050,8 +9364,14 @@
         <f t="shared" si="23"/>
         <v>3040.4338132719899</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L219">
+        <v>94120.052842079647</v>
+      </c>
+      <c r="M219">
+        <v>1.851192517935119</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>41281.343789999999</v>
       </c>
@@ -8085,8 +9405,14 @@
         <f t="shared" si="23"/>
         <v>3009.7138590992799</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L220">
+        <v>94183.969312300702</v>
+      </c>
+      <c r="M220">
+        <v>1.8312380058259052</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>41407.090709999997</v>
       </c>
@@ -8120,8 +9446,14 @@
         <f t="shared" si="23"/>
         <v>2979.2599790744398</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L221">
+        <v>94247.22826113482</v>
+      </c>
+      <c r="M221">
+        <v>1.8114852571522646</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>41533.220659999999</v>
       </c>
@@ -8155,8 +9487,14 @@
         <f t="shared" si="23"/>
         <v>3013.7288028517601</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L222">
+        <v>94420.670956757807</v>
+      </c>
+      <c r="M222">
+        <v>1.8290833112944962</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>41659.734819999998</v>
       </c>
@@ -8190,8 +9528,14 @@
         <f t="shared" si="23"/>
         <v>2889.4813736596002</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L223">
+        <v>94433.119212603895</v>
+      </c>
+      <c r="M223">
+        <v>1.753420128584454</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>41786.63435</v>
       </c>
@@ -8225,8 +9569,14 @@
         <f t="shared" si="23"/>
         <v>2830.9344800654299</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L224">
+        <v>94553.866879934401</v>
+      </c>
+      <c r="M224">
+        <v>1.7156870008990164</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>41913.920429999998</v>
       </c>
@@ -8260,8 +9610,14 @@
         <f t="shared" si="23"/>
         <v>2802.0485036600799</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L225">
+        <v>94613.304219038808</v>
+      </c>
+      <c r="M225">
+        <v>1.6971083803421059</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>42041.594239999999</v>
       </c>
@@ -8295,8 +9651,14 @@
         <f t="shared" si="23"/>
         <v>2952.23987479689</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L226">
+        <v>94766.78622258245</v>
+      </c>
+      <c r="M226">
+        <v>1.7852062257603893</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>42169.656949999997</v>
       </c>
@@ -8330,8 +9692,14 @@
         <f t="shared" si="23"/>
         <v>2891.98377299096</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L227">
+        <v>94880.782526782568</v>
+      </c>
+      <c r="M227">
+        <v>1.7466564643287614</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>42298.109750000003</v>
       </c>
@@ -8365,8 +9733,14 @@
         <f t="shared" si="23"/>
         <v>2775.95624443317</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L228">
+        <v>94890.187765103401</v>
+      </c>
+      <c r="M228">
+        <v>1.6763932695363037</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>42426.953829999999</v>
       </c>
@@ -8400,8 +9774,14 @@
         <f t="shared" si="23"/>
         <v>2719.1386700650301</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L229">
+        <v>95001.546685799913</v>
+      </c>
+      <c r="M229">
+        <v>1.6401464479265127</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>42556.190390000003</v>
       </c>
@@ -8435,8 +9815,14 @@
         <f t="shared" si="23"/>
         <v>2774.6994508482398</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L230">
+        <v>95101.705649125448</v>
+      </c>
+      <c r="M230">
+        <v>1.6719062029291956</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>42685.820610000002</v>
       </c>
@@ -8470,8 +9856,14 @@
         <f t="shared" si="23"/>
         <v>2746.0414547595901</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L231">
+        <v>95155.495819175616</v>
+      </c>
+      <c r="M231">
+        <v>1.6536977834499524</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>42815.845699999998</v>
       </c>
@@ -8505,8 +9897,14 @@
         <f t="shared" si="23"/>
         <v>2798.8609194600499</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L232">
+        <v>95254.566557737853</v>
+      </c>
+      <c r="M232">
+        <v>1.683761818480674</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>42946.26685</v>
       </c>
@@ -8540,8 +9938,14 @@
         <f t="shared" si="23"/>
         <v>2581.5549025383898</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L233">
+        <v>95269.893711529468</v>
+      </c>
+      <c r="M233">
+        <v>1.5527497909548784</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>43077.085290000003</v>
       </c>
@@ -8575,8 +9979,14 @@
         <f t="shared" si="23"/>
         <v>2712.6485232366399</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L234">
+        <v>95409.563541086958</v>
+      </c>
+      <c r="M234">
+        <v>1.6292314221313711</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>43208.302199999998</v>
       </c>
@@ -8610,8 +10020,14 @@
         <f t="shared" si="23"/>
         <v>2634.0127745507498</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L235">
+        <v>95365.056500806182</v>
+      </c>
+      <c r="M235">
+        <v>1.5827286852710858</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>43339.918819999999</v>
       </c>
@@ -8645,8 +10061,14 @@
         <f t="shared" si="23"/>
         <v>2579.5372462864302</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L236">
+        <v>95466.551173676082</v>
+      </c>
+      <c r="M236">
+        <v>1.5483390332584124</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>43471.936350000004</v>
       </c>
@@ -8680,8 +10102,14 @@
         <f t="shared" si="23"/>
         <v>2628.8101562543602</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L237">
+        <v>95559.695696128518</v>
+      </c>
+      <c r="M237">
+        <v>1.576383538108127</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>43604.356019999999</v>
       </c>
@@ -8715,8 +10143,14 @@
         <f t="shared" si="23"/>
         <v>2499.70989197368</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L238">
+        <v>95614.803398683478</v>
+      </c>
+      <c r="M238">
+        <v>1.4980854622200577</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>43737.179060000002</v>
       </c>
@@ -8750,8 +10184,14 @@
         <f t="shared" si="23"/>
         <v>2620.4185518024101</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L239">
+        <v>95748.273228135789</v>
+      </c>
+      <c r="M239">
+        <v>1.5682546230091596</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>43870.40668</v>
       </c>
@@ -8785,8 +10225,14 @@
         <f t="shared" si="23"/>
         <v>2592.9672492098598</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L240">
+        <v>95795.284905635301</v>
+      </c>
+      <c r="M240">
+        <v>1.5510599239624037</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>44004.040130000001</v>
       </c>
@@ -8820,8 +10266,14 @@
         <f t="shared" si="23"/>
         <v>2565.7754511865301</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L241">
+        <v>95841.795345546401</v>
+      </c>
+      <c r="M241">
+        <v>1.5340454483424633</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>44138.08064</v>
       </c>
@@ -8855,8 +10307,14 @@
         <f t="shared" si="23"/>
         <v>2468.0671876044498</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L242">
+        <v>95845.921059799628</v>
+      </c>
+      <c r="M242">
+        <v>1.4755501768349528</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>44272.529450000002</v>
       </c>
@@ -8890,8 +10348,14 @@
         <f t="shared" si="23"/>
         <v>2581.5873104042798</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L243">
+        <v>95975.986152823898</v>
+      </c>
+      <c r="M243">
+        <v>1.5413428446871706</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>44407.38781</v>
       </c>
@@ -8925,8 +10389,14 @@
         <f t="shared" si="23"/>
         <v>2554.4089079190899</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L244">
+        <v>96020.593140533689</v>
+      </c>
+      <c r="M244">
+        <v>1.5244033929769072</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>44542.656949999997</v>
       </c>
@@ -8960,8 +10430,14 @@
         <f t="shared" si="23"/>
         <v>2459.5667064723002</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L245">
+        <v>96022.922666607163</v>
+      </c>
+      <c r="M245">
+        <v>1.4677558458112936</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>44678.33814</v>
       </c>
@@ -8995,8 +10471,14 @@
         <f t="shared" si="23"/>
         <v>2407.97175231031</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L246">
+        <v>96110.605134646641</v>
+      </c>
+      <c r="M246">
+        <v>1.4356486087449172</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>44814.432630000003</v>
       </c>
@@ -9030,8 +10512,14 @@
         <f t="shared" si="23"/>
         <v>2448.2750959386599</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L247">
+        <v>96194.287411323108</v>
+      </c>
+      <c r="M247">
+        <v>1.4584127885804281</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>44950.94167</v>
       </c>
@@ -9065,8 +10553,14 @@
         <f t="shared" si="23"/>
         <v>2422.3770971056501</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L248">
+        <v>96236.551040120103</v>
+      </c>
+      <c r="M248">
+        <v>1.4423484920203669</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>45087.866529999999</v>
       </c>
@@ -9100,8 +10594,14 @@
         <f t="shared" si="23"/>
         <v>2460.4630357097099</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L249">
+        <v>96319.178921999293</v>
+      </c>
+      <c r="M249">
+        <v>1.463773732187936</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>45225.208480000001</v>
       </c>
@@ -9135,8 +10635,14 @@
         <f t="shared" si="23"/>
         <v>2371.3303647938501</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L250">
+        <v>96319.718704518382</v>
+      </c>
+      <c r="M250">
+        <v>1.4107282751469143</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>45362.968789999999</v>
       </c>
@@ -9170,8 +10676,14 @@
         <f t="shared" si="23"/>
         <v>2408.5240464519402</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L251">
+        <v>96400.623453906446</v>
+      </c>
+      <c r="M251">
+        <v>1.4316569627735531</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>45501.148719999997</v>
       </c>
@@ -9205,8 +10717,14 @@
         <f t="shared" si="23"/>
         <v>2321.2700315295101</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L252">
+        <v>96401.103796971031</v>
+      </c>
+      <c r="M252">
+        <v>1.3797749863459938</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>45639.74957</v>
       </c>
@@ -9240,8 +10758,14 @@
         <f t="shared" si="23"/>
         <v>2357.5925632240701</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L253">
+        <v>96480.317897816101</v>
+      </c>
+      <c r="M253">
+        <v>1.4002187530545269</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>45778.77261</v>
       </c>
@@ -9275,8 +10799,14 @@
         <f t="shared" si="23"/>
         <v>2392.25311335892</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L254">
+        <v>96559.325095006745</v>
+      </c>
+      <c r="M254">
+        <v>1.4196457201823287</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>45918.219120000002</v>
       </c>
@@ -9310,8 +10840,14 @@
         <f t="shared" si="23"/>
         <v>2307.6529798485699</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L255">
+        <v>96558.297524964844</v>
+      </c>
+      <c r="M255">
+        <v>1.3694459141694284</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>46058.090400000001</v>
       </c>
@@ -9345,8 +10881,14 @@
         <f t="shared" si="23"/>
         <v>2224.0481679047598</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L256">
+        <v>96558.668583979277</v>
+      </c>
+      <c r="M256">
+        <v>1.3198177372855515</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>46198.387750000002</v>
       </c>
@@ -9380,8 +10922,14 @@
         <f t="shared" si="23"/>
         <v>2316.4917871502298</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L257">
+        <v>96673.187812575256</v>
+      </c>
+      <c r="M257">
+        <v>1.3730581391482579</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>46339.112450000001</v>
       </c>
@@ -9415,8 +10963,14 @@
         <f t="shared" si="23"/>
         <v>2267.2225163723801</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L258">
+        <v>96747.049760551861</v>
+      </c>
+      <c r="M258">
+        <v>1.3428231100620021</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>46480.265809999997</v>
       </c>
@@ -9450,8 +11004,14 @@
         <f t="shared" ref="I259:I283" si="29">IMAGINARY(E259)</f>
         <v>2187.0417347334001</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L259">
+        <v>96745.970294565894</v>
+      </c>
+      <c r="M259">
+        <v>1.295340114474324</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>46621.849139999998</v>
       </c>
@@ -9485,8 +11045,14 @@
         <f t="shared" si="29"/>
         <v>2218.9253025538401</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L260">
+        <v>96819.313422532898</v>
+      </c>
+      <c r="M260">
+        <v>1.3132316530892232</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>46763.863749999997</v>
       </c>
@@ -9520,8 +11086,14 @@
         <f t="shared" si="29"/>
         <v>2107.8013293149302</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L261">
+        <v>96746.221295651194</v>
+      </c>
+      <c r="M261">
+        <v>1.2483968345518064</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>46906.310949999999</v>
       </c>
@@ -9555,8 +11127,14 @@
         <f t="shared" si="29"/>
         <v>2278.10958698174</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L262">
+        <v>96965.293534430297</v>
+      </c>
+      <c r="M262">
+        <v>1.3462350352781429</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>47049.192049999998</v>
       </c>
@@ -9590,8 +11168,14 @@
         <f t="shared" si="29"/>
         <v>2225.1244790831101</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L263">
+        <v>96927.194680247543</v>
+      </c>
+      <c r="M263">
+        <v>1.3154351849963324</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>47192.508390000003</v>
       </c>
@@ -9625,8 +11209,14 @@
         <f t="shared" si="29"/>
         <v>2253.61138002401</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L264">
+        <v>96999.283023760785</v>
+      </c>
+      <c r="M264">
+        <v>1.3312886026707105</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>47336.261270000003</v>
       </c>
@@ -9660,8 +11250,14 @@
         <f t="shared" si="29"/>
         <v>2280.61347907342</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L265">
+        <v>97071.097862782524</v>
+      </c>
+      <c r="M265">
+        <v>1.3462457320535188</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>47480.45205</v>
       </c>
@@ -9695,8 +11291,14 @@
         <f t="shared" si="29"/>
         <v>2154.1115040405998</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L266">
+        <v>97029.228362158479</v>
+      </c>
+      <c r="M266">
+        <v>1.2721078024250017</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>47625.082040000001</v>
       </c>
@@ -9730,8 +11332,14 @@
         <f t="shared" si="29"/>
         <v>2130.9141634891198</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L267">
+        <v>97062.49832438583</v>
+      </c>
+      <c r="M267">
+        <v>1.257975015984298</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>47770.152589999998</v>
       </c>
@@ -9765,8 +11373,14 @@
         <f t="shared" si="29"/>
         <v>2107.9503222582898</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L268">
+        <v>97095.404069005395</v>
+      </c>
+      <c r="M268">
+        <v>1.2439944777312968</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>47915.66504</v>
       </c>
@@ -9800,8 +11414,14 @@
         <f t="shared" si="29"/>
         <v>2134.7660839308201</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L269">
+        <v>97163.72537207893</v>
+      </c>
+      <c r="M269">
+        <v>1.2589361817260853</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>48061.620730000002</v>
       </c>
@@ -9835,8 +11455,14 @@
         <f t="shared" si="29"/>
         <v>2062.71521147458</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L270">
+        <v>97160.138053489121</v>
+      </c>
+      <c r="M270">
+        <v>1.2164840239954515</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>48208.02102</v>
       </c>
@@ -9870,8 +11496,14 @@
         <f t="shared" si="29"/>
         <v>2040.4399998149099</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L271">
+        <v>97191.973779774504</v>
+      </c>
+      <c r="M271">
+        <v>1.2029510802045893</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>48354.867259999999</v>
       </c>
@@ -9905,8 +11537,14 @@
         <f t="shared" si="29"/>
         <v>2088.89103969178</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L272">
+        <v>97227.004166769562</v>
+      </c>
+      <c r="M272">
+        <v>1.2310761906518251</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>48502.160799999998</v>
       </c>
@@ -9940,8 +11578,14 @@
         <f t="shared" si="29"/>
         <v>2066.3017684943302</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L273">
+        <v>97258.123123377125</v>
+      </c>
+      <c r="M273">
+        <v>1.2173716180702578</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>48649.903019999998</v>
       </c>
@@ -9975,8 +11619,14 @@
         <f t="shared" si="29"/>
         <v>1996.5644737288901</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L274">
+        <v>97254.601155962679</v>
+      </c>
+      <c r="M274">
+        <v>1.1763222851796549</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>48798.095269999998</v>
       </c>
@@ -10010,8 +11660,14 @@
         <f t="shared" si="29"/>
         <v>2068.1408755966499</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L275">
+        <v>97354.080040361194</v>
+      </c>
+      <c r="M275">
+        <v>1.2172541505307908</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>48946.73893</v>
       </c>
@@ -10045,8 +11701,14 @@
         <f t="shared" si="29"/>
         <v>1999.9028955302299</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L276">
+        <v>97349.441713238513</v>
+      </c>
+      <c r="M276">
+        <v>1.1771413866640066</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>49095.835370000001</v>
       </c>
@@ -10080,8 +11742,14 @@
         <f t="shared" si="29"/>
         <v>2023.52075809654</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L277">
+        <v>97413.226912676488</v>
+      </c>
+      <c r="M277">
+        <v>1.1902648380037366</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>49245.385979999999</v>
       </c>
@@ -10115,8 +11783,14 @@
         <f t="shared" si="29"/>
         <v>2001.552394605</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L278">
+        <v>97442.311948969611</v>
+      </c>
+      <c r="M278">
+        <v>1.1769894249902406</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>49395.39213</v>
       </c>
@@ -10150,8 +11824,14 @@
         <f t="shared" si="29"/>
         <v>2023.5897745252</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L279">
+        <v>97505.135399921273</v>
+      </c>
+      <c r="M279">
+        <v>1.1891832954191843</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>49545.855210000002</v>
       </c>
@@ -10185,8 +11865,14 @@
         <f t="shared" si="29"/>
         <v>2001.57852460247</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L280">
+        <v>97533.221250274728</v>
+      </c>
+      <c r="M280">
+        <v>1.1759075693591303</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>49696.776619999997</v>
       </c>
@@ -10220,8 +11906,14 @@
         <f t="shared" si="29"/>
         <v>2044.3475745941</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L281">
+        <v>97567.664488897863</v>
+      </c>
+      <c r="M281">
+        <v>1.20061355405975</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>49848.157749999998</v>
       </c>
@@ -10255,8 +11947,14 @@
         <f t="shared" si="29"/>
         <v>2022.0817720949101</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L282">
+        <v>97595.074230590253</v>
+      </c>
+      <c r="M282">
+        <v>1.1872017421934189</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>50000</v>
       </c>
@@ -10289,6 +11987,12 @@
       <c r="I283">
         <f t="shared" si="29"/>
         <v>2000.0457083184999</v>
+      </c>
+      <c r="L283">
+        <v>97622.180094843701</v>
+      </c>
+      <c r="M283">
+        <v>1.1739360460465176</v>
       </c>
     </row>
   </sheetData>
